--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/A/10/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.326</v>
+        <v>-21.756</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.078</v>
+        <v>-20.987</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.168</v>
+        <v>-20.825</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
